--- a/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
+++ b/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="106">
   <si>
     <t>土地坐落</t>
   </si>
@@ -221,6 +221,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>琉園股份有限公司</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
   </si>
   <si>
     <t>景岳生物科技股份有限公 司</t>
+  </si>
+  <si>
+    <t>2013-12-26</t>
   </si>
   <si>
     <t>財產種類</t>
@@ -1381,13 +1393,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1406,13 +1418,22 @@
       <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -1429,8 +1450,17 @@
       <c r="G2" s="2">
         <v>17485050</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>76</v>
       </c>
@@ -1452,13 +1482,22 @@
       <c r="G3" s="2">
         <v>1031160</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1475,13 +1514,22 @@
       <c r="G4" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1498,13 +1546,22 @@
       <c r="G5" s="2">
         <v>2400000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1521,13 +1578,22 @@
       <c r="G6" s="2">
         <v>312740</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1544,13 +1610,22 @@
       <c r="G7" s="2">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1567,13 +1642,22 @@
       <c r="G8" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1590,13 +1674,22 @@
       <c r="G9" s="2">
         <v>1150000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -1613,13 +1706,22 @@
       <c r="G10" s="2">
         <v>400000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -1635,6 +1737,15 @@
       </c>
       <c r="G11" s="2">
         <v>480000</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="2">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -1652,16 +1763,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1669,7 +1780,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -1686,7 +1797,7 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -1713,16 +1824,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1730,16 +1841,16 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1747,16 +1858,16 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1764,16 +1875,16 @@
         <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1781,16 +1892,16 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1808,22 +1919,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1834,19 +1945,19 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
+++ b/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="108">
   <si>
     <t>土地坐落</t>
   </si>
@@ -221,6 +221,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -245,13 +248,16 @@
     <t>元晶太陽能股份有限公司</t>
   </si>
   <si>
-    <t>旭晶能源科技股份有限公 司</t>
-  </si>
-  <si>
-    <t>和碩聯合科技股份有限公 司</t>
-  </si>
-  <si>
-    <t>景岳生物科技股份有限公 司</t>
+    <t>旭晶能源科技股份有限公司</t>
+  </si>
+  <si>
+    <t>和碩聯合科技股份有限公司</t>
+  </si>
+  <si>
+    <t>景岳生物科技股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-26</t>
@@ -1393,13 +1399,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1427,13 +1433,16 @@
       <c r="J1" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -1451,16 +1460,19 @@
         <v>17485050</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2">
+        <v>79</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>76</v>
       </c>
@@ -1483,21 +1495,24 @@
         <v>1031160</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="2">
+        <v>79</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1515,21 +1530,24 @@
         <v>500000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2">
+        <v>79</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1547,21 +1565,24 @@
         <v>2400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2">
+        <v>79</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1579,21 +1600,24 @@
         <v>312740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="2">
+        <v>79</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1611,21 +1635,24 @@
         <v>2500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="2">
+        <v>79</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1643,21 +1670,24 @@
         <v>2000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2">
+        <v>79</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1675,21 +1705,24 @@
         <v>1150000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="2">
+        <v>79</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -1707,21 +1740,24 @@
         <v>400000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="2">
+        <v>79</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2">
         <v>515</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -1739,12 +1775,15 @@
         <v>480000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="2">
+        <v>79</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2">
         <v>515</v>
       </c>
     </row>
@@ -1763,16 +1802,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1780,7 +1819,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -1797,7 +1836,7 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -1824,16 +1863,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1841,16 +1880,16 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1858,16 +1897,16 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1875,16 +1914,16 @@
         <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1892,16 +1931,16 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1919,22 +1958,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1945,19 +1984,19 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
+++ b/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="113">
   <si>
     <t>土地坐落</t>
   </si>
@@ -224,6 +224,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -233,6 +236,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>琉園股份有限公司</t>
   </si>
   <si>
@@ -260,7 +269,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-26</t>
+  </si>
+  <si>
+    <t>tmpc7fb1</t>
   </si>
   <si>
     <t>財產種類</t>
@@ -1399,13 +1414,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1436,13 +1451,22 @@
       <c r="K1" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -1460,19 +1484,28 @@
         <v>17485050</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2">
+        <v>83</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>76</v>
       </c>
@@ -1495,24 +1528,33 @@
         <v>1031160</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2">
+        <v>83</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1530,24 +1572,33 @@
         <v>500000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2">
+        <v>83</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1565,24 +1616,33 @@
         <v>2400000</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2">
+        <v>515</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="2">
         <v>78</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="2">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1600,24 +1660,33 @@
         <v>312740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2">
+        <v>515</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="2">
         <v>79</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1635,24 +1704,33 @@
         <v>2500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2">
+        <v>83</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1670,24 +1748,33 @@
         <v>2000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="2">
+        <v>83</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1705,24 +1792,33 @@
         <v>1150000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="2">
+        <v>83</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -1740,24 +1836,33 @@
         <v>400000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="2">
+        <v>83</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="2">
         <v>515</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -1775,16 +1880,25 @@
         <v>480000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="2">
+        <v>83</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="2">
         <v>515</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="2">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1802,16 +1916,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1819,7 +1933,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -1836,7 +1950,7 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -1863,16 +1977,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1880,16 +1994,16 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1897,16 +2011,16 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1914,16 +2028,16 @@
         <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1931,16 +2045,16 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1958,22 +2072,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1984,19 +2098,19 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
+++ b/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
@@ -21,9 +21,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="113">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="117">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段00930000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段00660000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段00210008地號</t>
+  </si>
+  <si>
+    <t>10000分之101</t>
+  </si>
+  <si>
+    <t>97300分之4170</t>
+  </si>
+  <si>
+    <t>10000分之84</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>丁守中</t>
+  </si>
+  <si>
+    <t>溫子苓</t>
+  </si>
+  <si>
+    <t>78年10月11曰</t>
+  </si>
+  <si>
+    <t>93年08月19曰</t>
+  </si>
+  <si>
+    <t>85年05月240</t>
+  </si>
+  <si>
+    <t>97年07月22日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-26</t>
+  </si>
+  <si>
+    <t>tmpc7fb1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,70 +146,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市北投區振興段一小段 0093-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 0066-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 0021-0008 地號</t>
-  </si>
-  <si>
-    <t>10000分之 101</t>
-  </si>
-  <si>
-    <t>97300分之 4170</t>
-  </si>
-  <si>
-    <t>10000分之 84</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>丁守中</t>
-  </si>
-  <si>
-    <t>溫子苓</t>
-  </si>
-  <si>
-    <t>78年10月 11曰</t>
-  </si>
-  <si>
-    <t>93年08月 19曰</t>
-  </si>
-  <si>
-    <t>85年05月 24 0</t>
-  </si>
-  <si>
-    <t>97年07月 22日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 12407-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 12496-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 12398-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 12884-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 12891-000 建號</t>
+    <t>臺北市北投區振興段一小段12407000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12496000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12398000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12884000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12891000建號</t>
   </si>
   <si>
     <t>.126.18</t>
@@ -116,16 +167,13 @@
     <t>56分之1</t>
   </si>
   <si>
-    <t>全部，</t>
-  </si>
-  <si>
-    <t>100000 分 之 4464</t>
-  </si>
-  <si>
-    <t>85年05月 24日</t>
-  </si>
-  <si>
-    <t>93年08月 19日</t>
+    <t>100000分之4464</t>
+  </si>
+  <si>
+    <t>85年05月24日</t>
+  </si>
+  <si>
+    <t>93年08月19日</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -137,10 +185,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>LEXUS ES350 (客車）</t>
-  </si>
-  <si>
-    <t>100 年 04 月19曰</t>
+    <t>LEXUSES350(客車）</t>
+  </si>
+  <si>
+    <t>100年04月19曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -200,13 +248,7 @@
     <t>美金</t>
   </si>
   <si>
-    <t>10，000</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>10000</t>
   </si>
   <si>
     <t>quantity</t>
@@ -221,27 +263,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>琉園股份有限公司</t>
   </si>
   <si>
@@ -269,19 +290,10 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-26</t>
-  </si>
-  <si>
-    <t>tmpc7fb1</t>
-  </si>
-  <si>
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>所有.人</t>
@@ -293,7 +305,7 @@
     <t>手錶</t>
   </si>
   <si>
-    <t>手錶，珠寶</t>
+    <t>手錶珠寶</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -329,10 +341,10 @@
     <t>20年期年繳56227元</t>
   </si>
   <si>
-    <t>新20年期增值分紅年繳 21252 元</t>
-  </si>
-  <si>
-    <t>新20年期增值分紅年繳 18063 元</t>
+    <t>新20年期增值分紅年繳21252元</t>
+  </si>
+  <si>
+    <t>新20年期增值分紅年繳18063元</t>
   </si>
   <si>
     <t>投資人</t>
@@ -356,10 +368,10 @@
     <t>鼎天股份有限公司</t>
   </si>
   <si>
-    <t>臺北市北投路二段13號10 樓之一 11</t>
-  </si>
-  <si>
-    <t>95年09月 01日</t>
+    <t>臺北市北投路二段13號10樓之一11</t>
+  </si>
+  <si>
+    <t>95年09月01日</t>
   </si>
 </sst>
 </file>
@@ -718,13 +730,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,109 +758,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>3971</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>515</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>973</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>515</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>3971</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>515</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>2975.21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>515</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -866,25 +983,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -892,25 +1009,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>193.66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -918,25 +1035,25 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>2357.46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -944,25 +1061,25 @@
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2">
         <v>153.32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -970,25 +1087,25 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2">
         <v>2357.46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -996,25 +1113,25 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1022,25 +1139,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2">
         <v>1350.27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1058,22 +1175,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1081,19 +1198,19 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2">
         <v>600000</v>
@@ -1114,22 +1231,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1137,16 +1254,16 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1158,16 +1275,16 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1179,16 +1296,16 @@
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1200,16 +1317,16 @@
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1221,16 +1338,16 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1242,16 +1359,16 @@
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
         <v>1.01</v>
@@ -1265,20 +1382,20 @@
         <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1286,16 +1403,16 @@
         <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1307,16 +1424,16 @@
         <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1328,16 +1445,16 @@
         <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1349,16 +1466,16 @@
         <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1370,16 +1487,16 @@
         <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1391,16 +1508,16 @@
         <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1422,43 +1539,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1466,10 +1583,10 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>1748505</v>
@@ -1478,28 +1595,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2">
         <v>17485050</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2">
         <v>515</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2">
         <v>75</v>
@@ -1510,10 +1627,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>103116</v>
@@ -1522,28 +1639,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2">
         <v>1031160</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2">
         <v>515</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="N3" s="2">
         <v>76</v>
@@ -1554,10 +1671,10 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>50000</v>
@@ -1566,28 +1683,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G4" s="2">
         <v>500000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2">
         <v>515</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="N4" s="2">
         <v>77</v>
@@ -1598,10 +1715,10 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
         <v>240000</v>
@@ -1610,28 +1727,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G5" s="2">
         <v>2400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2">
         <v>515</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="N5" s="2">
         <v>78</v>
@@ -1642,10 +1759,10 @@
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
         <v>31274</v>
@@ -1654,28 +1771,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G6" s="2">
         <v>312740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2">
         <v>515</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="N6" s="2">
         <v>79</v>
@@ -1686,10 +1803,10 @@
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>250000</v>
@@ -1698,28 +1815,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2">
         <v>2500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2">
         <v>515</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="N7" s="2">
         <v>80</v>
@@ -1730,10 +1847,10 @@
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
         <v>200000</v>
@@ -1742,28 +1859,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2">
         <v>2000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2">
         <v>515</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="N8" s="2">
         <v>81</v>
@@ -1774,10 +1891,10 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>115000</v>
@@ -1786,28 +1903,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2">
         <v>1150000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L9" s="2">
         <v>515</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="N9" s="2">
         <v>82</v>
@@ -1818,10 +1935,10 @@
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
         <v>40000</v>
@@ -1830,28 +1947,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G10" s="2">
         <v>400000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L10" s="2">
         <v>515</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="N10" s="2">
         <v>83</v>
@@ -1862,10 +1979,10 @@
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
         <v>48000</v>
@@ -1874,28 +1991,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G11" s="2">
         <v>480000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L11" s="2">
         <v>515</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="N11" s="2">
         <v>84</v>
@@ -1916,16 +2033,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1933,13 +2050,13 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>600000</v>
@@ -1950,13 +2067,13 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
@@ -1977,16 +2094,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1994,16 +2111,16 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2011,16 +2128,16 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2028,16 +2145,16 @@
         <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2045,16 +2162,16 @@
         <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2072,22 +2189,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2095,22 +2212,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
+++ b/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -65,18 +65,21 @@
     <t>index</t>
   </si>
   <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段00660000地號</t>
+  </si>
+  <si>
     <t>臺北市北投區振興段一小段00930000地號</t>
   </si>
   <si>
-    <t>臺北市北投區振興段一小段00660000地號</t>
-  </si>
-  <si>
     <t>臺北市北投區振興段一小段00210008地號</t>
   </si>
   <si>
-    <t>10000分之101</t>
-  </si>
-  <si>
     <t>97300分之4170</t>
   </si>
   <si>
@@ -92,63 +95,42 @@
     <t>溫子苓</t>
   </si>
   <si>
+    <t>93年08月19曰</t>
+  </si>
+  <si>
+    <t>85年05月240</t>
+  </si>
+  <si>
+    <t>97年07月22日</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-26</t>
+  </si>
+  <si>
+    <t>tmpc7fb1</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段12407000建號</t>
+  </si>
+  <si>
     <t>78年10月11曰</t>
   </si>
   <si>
-    <t>93年08月19曰</t>
-  </si>
-  <si>
-    <t>85年05月240</t>
-  </si>
-  <si>
-    <t>97年07月22日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-26</t>
-  </si>
-  <si>
-    <t>tmpc7fb1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段12407000建號</t>
-  </si>
-  <si>
     <t>臺北市北投區振興段一小段12496000建號</t>
   </si>
   <si>
@@ -176,39 +158,21 @@
     <t>93年08月19日</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>LEXUSES350(客車）</t>
   </si>
   <si>
     <t>100年04月19曰</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台北富邦商業銀行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
@@ -230,9 +194,6 @@
     <t>華南商業銀行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
@@ -242,9 +203,6 @@
     <t>支票存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -260,12 +218,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>琉園股份有限公司</t>
-  </si>
-  <si>
     <t>愛樂電台股份有限公司</t>
   </si>
   <si>
@@ -290,42 +242,21 @@
     <t>stock</t>
   </si>
   <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>所有.人</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>手錶</t>
   </si>
   <si>
     <t>手錶珠寶</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
     <t>南山康福20年期終身壽險</t>
   </si>
   <si>
+    <t>20年期年繳68310元</t>
+  </si>
+  <si>
     <t>南山康福20年期终身壽險</t>
   </si>
   <si>
@@ -335,9 +266,6 @@
     <t>终身壽險</t>
   </si>
   <si>
-    <t>20年期年繳68310元</t>
-  </si>
-  <si>
     <t>20年期年繳56227元</t>
   </si>
   <si>
@@ -347,31 +275,16 @@
     <t>新20年期增值分紅年繳18063元</t>
   </si>
   <si>
-    <t>投資人</t>
+    <t>鼎天股份有限公司</t>
+  </si>
+  <si>
+    <t>臺北市北投路二段13號10樓之一11</t>
+  </si>
+  <si>
+    <t>95年09月01日</t>
   </si>
   <si>
     <t>投資</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>鼎天股份有限公司</t>
-  </si>
-  <si>
-    <t>臺北市北投路二段13號10樓之一11</t>
-  </si>
-  <si>
-    <t>95年09月01日</t>
   </si>
 </sst>
 </file>
@@ -730,13 +643,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,25 +692,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>3971</v>
+        <v>973</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>27</v>
@@ -815,7 +734,7 @@
         <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>515</v>
@@ -824,27 +743,33 @@
         <v>33</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0428571428571429</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>973</v>
+        <v>3971</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>28</v>
@@ -862,7 +787,7 @@
         <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>515</v>
@@ -871,30 +796,36 @@
         <v>33</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0084</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>33.3564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>3971</v>
+        <v>2975.21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>29</v>
@@ -909,7 +840,7 @@
         <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2">
         <v>515</v>
@@ -918,54 +849,13 @@
         <v>33</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>2975.21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="2">
-        <v>515</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="2">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +865,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -985,46 +875,46 @@
       <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>193.66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2357.46</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2">
-        <v>193.66</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>29</v>
@@ -1032,25 +922,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
-        <v>2357.46</v>
+        <v>153.32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>29</v>
@@ -1058,25 +948,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2357.46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="2">
-        <v>153.32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>29</v>
@@ -1084,22 +974,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2357.46</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>27</v>
@@ -1110,53 +1000,27 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1350.27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1350.27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1167,7 +1031,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3456</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1">
+        <v>600000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1175,352 +1072,273 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>1766028</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3456</v>
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2">
-        <v>600000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>54</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1766028</v>
+        <v>302001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>302001</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>2795</v>
+        <v>3066404</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>3066404</v>
+        <v>27282</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.01</v>
+      </c>
       <c r="G6" s="2">
-        <v>27282</v>
+        <v>29.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.01</v>
-      </c>
-      <c r="G7" s="2">
-        <v>29.43</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>75</v>
+      <c r="G8" s="2">
+        <v>314213</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>314213</v>
+        <v>109441</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>109441</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>5000</v>
+        <v>92882</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>92882</v>
+        <v>5994</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>5994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>66</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
         <v>121334</v>
       </c>
     </row>
@@ -1531,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1545,16 +1363,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1580,28 +1398,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
-        <v>1748505</v>
+        <v>103116</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2">
-        <v>17485050</v>
+        <v>1031160</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1610,7 +1428,7 @@
         <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2">
         <v>515</v>
@@ -1619,33 +1437,33 @@
         <v>33</v>
       </c>
       <c r="N2" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
-        <v>103116</v>
+        <v>50000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2">
-        <v>1031160</v>
+        <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
@@ -1654,7 +1472,7 @@
         <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2">
         <v>515</v>
@@ -1663,33 +1481,33 @@
         <v>33</v>
       </c>
       <c r="N3" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2">
-        <v>50000</v>
+        <v>240000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2">
-        <v>500000</v>
+        <v>2400000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>31</v>
@@ -1698,7 +1516,7 @@
         <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2">
         <v>515</v>
@@ -1707,33 +1525,33 @@
         <v>33</v>
       </c>
       <c r="N4" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>240000</v>
+        <v>31274</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2">
-        <v>2400000</v>
+        <v>312740</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>31</v>
@@ -1742,7 +1560,7 @@
         <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2">
         <v>515</v>
@@ -1751,33 +1569,33 @@
         <v>33</v>
       </c>
       <c r="N5" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
-        <v>31274</v>
+        <v>250000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2">
-        <v>312740</v>
+        <v>2500000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>31</v>
@@ -1786,7 +1604,7 @@
         <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2">
         <v>515</v>
@@ -1795,33 +1613,33 @@
         <v>33</v>
       </c>
       <c r="N6" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>31</v>
@@ -1830,7 +1648,7 @@
         <v>32</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2">
         <v>515</v>
@@ -1839,33 +1657,33 @@
         <v>33</v>
       </c>
       <c r="N7" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
-        <v>200000</v>
+        <v>115000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2">
-        <v>2000000</v>
+        <v>1150000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>31</v>
@@ -1874,7 +1692,7 @@
         <v>32</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2">
         <v>515</v>
@@ -1883,33 +1701,33 @@
         <v>33</v>
       </c>
       <c r="N8" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>115000</v>
+        <v>40000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2">
-        <v>1150000</v>
+        <v>400000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>31</v>
@@ -1918,7 +1736,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2">
         <v>515</v>
@@ -1927,33 +1745,33 @@
         <v>33</v>
       </c>
       <c r="N9" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2">
-        <v>400000</v>
+        <v>480000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>31</v>
@@ -1962,7 +1780,7 @@
         <v>32</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="2">
         <v>515</v>
@@ -1971,50 +1789,6 @@
         <v>33</v>
       </c>
       <c r="N10" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>84</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2">
-        <v>48000</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="2">
-        <v>480000</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="2">
-        <v>515</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="2">
         <v>84</v>
       </c>
     </row>
@@ -2025,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2033,49 +1807,32 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>22</v>
+      </c>
+      <c r="E1" s="1">
+        <v>600000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>105</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2">
         <v>2000000</v>
       </c>
     </row>
@@ -2086,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2094,84 +1851,67 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>114</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2181,53 +1921,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
+      </c>
+      <c r="E1" s="1">
+        <v>990000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>128</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="2">
-        <v>990000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
+++ b/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -71,15 +71,18 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市北投區振興段一小段00930000地號</t>
+  </si>
+  <si>
     <t>臺北市北投區振興段一小段00660000地號</t>
   </si>
   <si>
-    <t>臺北市北投區振興段一小段00930000地號</t>
-  </si>
-  <si>
     <t>臺北市北投區振興段一小段00210008地號</t>
   </si>
   <si>
+    <t>10000分之101</t>
+  </si>
+  <si>
     <t>97300分之4170</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t>溫子苓</t>
   </si>
   <si>
+    <t>78年10月11曰</t>
+  </si>
+  <si>
     <t>93年08月19曰</t>
   </si>
   <si>
@@ -104,12 +110,12 @@
     <t>97年07月22日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>繼承</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -128,9 +134,6 @@
     <t>臺北市北投區振興段一小段12407000建號</t>
   </si>
   <si>
-    <t>78年10月11曰</t>
-  </si>
-  <si>
     <t>臺北市北投區振興段一小段12496000建號</t>
   </si>
   <si>
@@ -143,9 +146,6 @@
     <t>臺北市北投區振興段一小段12891000建號</t>
   </si>
   <si>
-    <t>.126.18</t>
-  </si>
-  <si>
     <t>56分之1</t>
   </si>
   <si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>琉園股份有限公司</t>
   </si>
   <si>
     <t>愛樂電台股份有限公司</t>
@@ -643,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -701,66 +704,66 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>973</v>
+        <v>3971</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>515</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0428571428571429</v>
+        <v>0.0101</v>
       </c>
       <c r="Q2" s="2">
-        <v>41.7</v>
+        <v>40.1071</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>3971</v>
+        <v>973</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -769,92 +772,145 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>515</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
-        <v>0.0084</v>
+        <v>0.0428571428571429</v>
       </c>
       <c r="Q3" s="2">
-        <v>33.3564</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="2">
-        <v>2975.21</v>
+        <v>3971</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>515</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0084</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>33.3564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2975.21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="2">
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>515</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
         <v>16</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P5" s="2">
         <v>1</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q5" s="2">
         <v>2975.21</v>
       </c>
     </row>
@@ -865,163 +921,378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1">
-        <v>193.66</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="2">
-        <v>2357.46</v>
+        <v>193.66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>515</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>193.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="2">
+        <v>2357.46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>515</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0178571428571429</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>42.0975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
         <v>153.32</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2357.46</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>515</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>153.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2357.46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>515</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>24</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0178571428571429</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>42.0975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="2">
+        <v>126.18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>515</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
+        <v>25</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>126.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2">
         <v>1350.27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2">
+        <v>515</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2">
+        <v>26</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.04464</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>60.2760528</v>
       </c>
     </row>
   </sheetData>
@@ -1031,13 +1302,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1045,15 +1316,38 @@
         <v>3456</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3456</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2">
         <v>600000</v>
       </c>
     </row>
@@ -1064,7 +1358,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1081,7 +1375,7 @@
         <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1090,10 +1384,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
@@ -1102,19 +1396,19 @@
         <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>302001</v>
+        <v>1766028</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>48</v>
@@ -1123,19 +1417,19 @@
         <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>2795</v>
+        <v>302001</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>48</v>
@@ -1148,143 +1442,143 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>3066404</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>27282</v>
+        <v>3066404</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.01</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>29.43</v>
+        <v>27282</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="G7" s="2">
+        <v>29.43</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>314213</v>
+      <c r="G8" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>109441</v>
+        <v>314213</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>5000</v>
+        <v>109441</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>48</v>
@@ -1293,19 +1587,19 @@
         <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>92882</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>48</v>
@@ -1314,16 +1608,16 @@
         <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>5994</v>
+        <v>92882</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>56</v>
@@ -1339,6 +1633,27 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
+        <v>5994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
         <v>121334</v>
       </c>
     </row>
@@ -1349,7 +1664,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1398,16 +1713,16 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
-        <v>103116</v>
+        <v>1748505</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
@@ -1416,42 +1731,42 @@
         <v>49</v>
       </c>
       <c r="G2" s="2">
-        <v>1031160</v>
+        <v>17485050</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>515</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
-        <v>50000</v>
+        <v>103116</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
@@ -1460,42 +1775,42 @@
         <v>49</v>
       </c>
       <c r="G3" s="2">
-        <v>500000</v>
+        <v>1031160</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2">
         <v>515</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N3" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
-        <v>240000</v>
+        <v>50000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
@@ -1504,42 +1819,42 @@
         <v>49</v>
       </c>
       <c r="G4" s="2">
-        <v>2400000</v>
+        <v>500000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2">
         <v>515</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N4" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
-        <v>31274</v>
+        <v>240000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -1548,33 +1863,33 @@
         <v>49</v>
       </c>
       <c r="G5" s="2">
-        <v>312740</v>
+        <v>2400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2">
         <v>515</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N5" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>68</v>
@@ -1583,7 +1898,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="2">
-        <v>250000</v>
+        <v>31274</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
@@ -1592,42 +1907,42 @@
         <v>49</v>
       </c>
       <c r="G6" s="2">
-        <v>2500000</v>
+        <v>312740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2">
         <v>515</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N6" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
@@ -1636,42 +1951,42 @@
         <v>49</v>
       </c>
       <c r="G7" s="2">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2">
         <v>515</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>115000</v>
+        <v>200000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -1680,33 +1995,33 @@
         <v>49</v>
       </c>
       <c r="G8" s="2">
-        <v>1150000</v>
+        <v>2000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" s="2">
         <v>515</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N8" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>70</v>
@@ -1715,7 +2030,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>40000</v>
+        <v>115000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -1724,42 +2039,42 @@
         <v>49</v>
       </c>
       <c r="G9" s="2">
-        <v>400000</v>
+        <v>1150000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="2">
         <v>515</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N9" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
@@ -1768,27 +2083,71 @@
         <v>49</v>
       </c>
       <c r="G10" s="2">
-        <v>480000</v>
+        <v>400000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" s="2">
         <v>515</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>84</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>48000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2">
+        <v>480000</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="2">
+      <c r="J11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="2">
+        <v>515</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="2">
         <v>84</v>
       </c>
     </row>
@@ -1799,7 +2158,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1807,13 +2166,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1">
         <v>600000</v>
@@ -1821,18 +2180,35 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>105</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2">
         <v>2000000</v>
       </c>
     </row>
@@ -1843,7 +2219,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1851,47 +2227,47 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>82</v>
@@ -1899,10 +2275,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>80</v>
@@ -1912,6 +2288,23 @@
       </c>
       <c r="E4" s="2" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>114</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1921,30 +2314,53 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1">
         <v>990000</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="2">
+        <v>990000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
+++ b/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>93年08月19日</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>LEXUSES350(客車）</t>
@@ -1302,38 +1305,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1">
-        <v>3456</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
@@ -1342,13 +1366,34 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="2">
         <v>600000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>515</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1366,13 +1411,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1384,16 +1429,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1405,16 +1450,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1426,16 +1471,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1447,16 +1492,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1468,16 +1513,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1489,16 +1534,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1512,37 +1557,37 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -1554,16 +1599,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -1575,16 +1620,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1596,16 +1641,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -1617,16 +1662,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1638,16 +1683,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -1678,13 +1723,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1713,10 +1758,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1728,13 +1773,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2">
         <v>17485050</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1752,15 +1797,15 @@
         <v>35</v>
       </c>
       <c r="N2" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1772,13 +1817,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2">
         <v>1031160</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>33</v>
@@ -1796,15 +1841,15 @@
         <v>35</v>
       </c>
       <c r="N3" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1816,13 +1861,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2">
         <v>500000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>33</v>
@@ -1840,15 +1885,15 @@
         <v>35</v>
       </c>
       <c r="N4" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -1860,13 +1905,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2">
         <v>2400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>33</v>
@@ -1884,15 +1929,15 @@
         <v>35</v>
       </c>
       <c r="N5" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -1904,13 +1949,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2">
         <v>312740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>33</v>
@@ -1928,15 +1973,15 @@
         <v>35</v>
       </c>
       <c r="N6" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1948,13 +1993,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2">
         <v>2500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>33</v>
@@ -1972,15 +2017,15 @@
         <v>35</v>
       </c>
       <c r="N7" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -1992,13 +2037,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2">
         <v>2000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>33</v>
@@ -2016,15 +2061,15 @@
         <v>35</v>
       </c>
       <c r="N8" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2036,13 +2081,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2">
         <v>1150000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>33</v>
@@ -2060,15 +2105,15 @@
         <v>35</v>
       </c>
       <c r="N9" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -2080,13 +2125,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2">
         <v>400000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>33</v>
@@ -2104,15 +2149,15 @@
         <v>35</v>
       </c>
       <c r="N10" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -2124,13 +2169,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2">
         <v>480000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>33</v>
@@ -2148,7 +2193,7 @@
         <v>35</v>
       </c>
       <c r="N11" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2166,7 +2211,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -2180,10 +2225,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -2197,10 +2242,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -2227,84 +2272,84 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2325,42 +2370,42 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1">
         <v>990000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
+++ b/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -158,6 +158,9 @@
     <t>93年08月19日</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -165,6 +168,9 @@
   </si>
   <si>
     <t>100年04月19曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台北富邦商業銀行</t>
@@ -1006,7 +1012,7 @@
         <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>33</v>
@@ -1059,7 +1065,7 @@
         <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>33</v>
@@ -1112,7 +1118,7 @@
         <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>33</v>
@@ -1165,7 +1171,7 @@
         <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>33</v>
@@ -1218,7 +1224,7 @@
         <v>31</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>33</v>
@@ -1271,7 +1277,7 @@
         <v>31</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>33</v>
@@ -1316,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1357,7 +1363,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
@@ -1366,7 +1372,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
@@ -1375,7 +1381,7 @@
         <v>600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1411,13 +1417,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1432,13 +1438,13 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1453,13 +1459,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1474,13 +1480,13 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1495,13 +1501,13 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1516,13 +1522,13 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1537,13 +1543,13 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1560,20 +1566,20 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1581,13 +1587,13 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -1602,13 +1608,13 @@
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -1623,13 +1629,13 @@
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1644,13 +1650,13 @@
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -1665,13 +1671,13 @@
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1686,13 +1692,13 @@
         <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -1723,13 +1729,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1761,7 +1767,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1773,13 +1779,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2">
         <v>17485050</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1805,7 +1811,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1817,13 +1823,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2">
         <v>1031160</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>33</v>
@@ -1849,7 +1855,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1861,13 +1867,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2">
         <v>500000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>33</v>
@@ -1893,7 +1899,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -1905,13 +1911,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2">
         <v>2400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>33</v>
@@ -1937,7 +1943,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -1949,13 +1955,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2">
         <v>312740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>33</v>
@@ -1981,7 +1987,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1993,13 +1999,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2">
         <v>2500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>33</v>
@@ -2025,7 +2031,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -2037,13 +2043,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="2">
         <v>2000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>33</v>
@@ -2069,7 +2075,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2081,13 +2087,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2">
         <v>1150000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>33</v>
@@ -2113,7 +2119,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -2125,13 +2131,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2">
         <v>400000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>33</v>
@@ -2157,7 +2163,7 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -2169,13 +2175,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2">
         <v>480000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>33</v>
@@ -2211,7 +2217,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -2228,7 +2234,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -2245,7 +2251,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -2272,16 +2278,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2289,16 +2295,16 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2306,16 +2312,16 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2323,16 +2329,16 @@
         <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2340,16 +2346,16 @@
         <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2370,19 +2376,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1">
         <v>990000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2393,19 +2399,19 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
+++ b/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -173,58 +173,64 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行</t>
   </si>
   <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>永豐商業銀行</t>
+  </si>
+  <si>
+    <t>上海商業儲蓄銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>永豐商業銀行</t>
-  </si>
-  <si>
-    <t>上海商業儲蓄銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>10000</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>琉園股份有限公司</t>
@@ -1409,13 +1415,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1426,286 +1432,564 @@
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>1766028</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1766028</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
+        <v>515</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2">
         <v>51</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>1766028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2">
+        <v>302001</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2">
+        <v>515</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2">
         <v>52</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>302001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>2795</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>515</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>3066404</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>515</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>27282</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2">
+        <v>515</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="2">
-        <v>1.01</v>
-      </c>
-      <c r="G7" s="2">
         <v>29.43</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2">
+        <v>515</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>10000</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2">
+        <v>515</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>314213</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2">
+        <v>515</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>109441</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2">
+        <v>515</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2">
+        <v>515</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>92882</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2">
+        <v>515</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>5994</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2">
+        <v>515</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>121334</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2">
+        <v>515</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1729,13 +2013,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1767,7 +2051,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1779,13 +2063,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2">
         <v>17485050</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1811,7 +2095,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1823,13 +2107,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2">
         <v>1031160</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>33</v>
@@ -1855,7 +2139,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1867,13 +2151,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2">
         <v>500000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>33</v>
@@ -1899,7 +2183,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -1911,13 +2195,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2">
         <v>2400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>33</v>
@@ -1943,7 +2227,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -1955,13 +2239,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2">
         <v>312740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>33</v>
@@ -1987,7 +2271,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1999,13 +2283,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2">
         <v>2500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>33</v>
@@ -2031,7 +2315,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -2043,13 +2327,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2">
         <v>2000000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>33</v>
@@ -2075,7 +2359,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -2087,13 +2371,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G9" s="2">
         <v>1150000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>33</v>
@@ -2119,7 +2403,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -2131,13 +2415,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G10" s="2">
         <v>400000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>33</v>
@@ -2163,7 +2447,7 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -2175,13 +2459,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G11" s="2">
         <v>480000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>33</v>
@@ -2217,7 +2501,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -2234,7 +2518,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -2251,7 +2535,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -2278,16 +2562,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2295,16 +2579,16 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2312,16 +2596,16 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2329,16 +2613,16 @@
         <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2346,16 +2630,16 @@
         <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2376,19 +2660,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1">
         <v>990000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2399,19 +2683,19 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
+++ b/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>手錶珠寶</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -2493,27 +2496,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -2529,8 +2553,29 @@
       <c r="E2" s="2">
         <v>600000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2">
+        <v>515</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>102</v>
       </c>
@@ -2545,6 +2590,27 @@
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2">
+        <v>515</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2562,16 +2628,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2579,16 +2645,16 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2596,16 +2662,16 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2613,16 +2679,16 @@
         <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2630,16 +2696,16 @@
         <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2660,19 +2726,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1">
         <v>990000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2683,19 +2749,19 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
+++ b/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -266,7 +266,10 @@
     <t>手錶珠寶</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -275,9 +278,6 @@
     <t>南山康福20年期終身壽險</t>
   </si>
   <si>
-    <t>20年期年繳68310元</t>
-  </si>
-  <si>
     <t>南山康福20年期终身壽險</t>
   </si>
   <si>
@@ -287,13 +287,10 @@
     <t>终身壽險</t>
   </si>
   <si>
-    <t>20年期年繳56227元</t>
-  </si>
-  <si>
-    <t>新20年期增值分紅年繳21252元</t>
-  </si>
-  <si>
-    <t>新20年期增值分紅年繳18063元</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>鼎天股份有限公司</t>
@@ -306,6 +303,9 @@
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2620,49 +2620,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
+        <v>515</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>85</v>
@@ -2673,13 +2709,31 @@
       <c r="E3" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2">
+        <v>515</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>86</v>
@@ -2688,15 +2742,33 @@
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2">
+        <v>515</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>87</v>
@@ -2705,7 +2777,25 @@
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2">
+        <v>515</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2715,33 +2805,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1">
-        <v>990000</v>
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>125</v>
       </c>
@@ -2749,19 +2860,40 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>515</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
+++ b/legislator/property/output/normal/丁守中_2013-12-26_財產申報表_tmpc7fb1.xlsx
@@ -14,14 +14,15 @@
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="具有相當價值之財產" sheetId="6" r:id="rId6"/>
     <sheet name="保險" sheetId="7" r:id="rId7"/>
-    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
+    <sheet name="債務" sheetId="8" r:id="rId8"/>
+    <sheet name="事業投資" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -288,6 +289,24 @@
   </si>
   <si>
     <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>房屋土地抵押貸款</t>
+  </si>
+  <si>
+    <t>華南商業銀行臺北市北投區北投路二段13號</t>
+  </si>
+  <si>
+    <t>100年01月10日</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
   <si>
     <t>address</t>
@@ -2051,7 +2070,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>70</v>
@@ -2090,12 +2109,12 @@
         <v>35</v>
       </c>
       <c r="N2" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>56</v>
@@ -2134,12 +2153,12 @@
         <v>35</v>
       </c>
       <c r="N3" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>71</v>
@@ -2178,12 +2197,12 @@
         <v>35</v>
       </c>
       <c r="N4" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>72</v>
@@ -2222,12 +2241,12 @@
         <v>35</v>
       </c>
       <c r="N5" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>73</v>
@@ -2266,12 +2285,12 @@
         <v>35</v>
       </c>
       <c r="N6" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>74</v>
@@ -2310,12 +2329,12 @@
         <v>35</v>
       </c>
       <c r="N7" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>74</v>
@@ -2354,12 +2373,12 @@
         <v>35</v>
       </c>
       <c r="N8" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>75</v>
@@ -2398,12 +2417,12 @@
         <v>35</v>
       </c>
       <c r="N9" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>76</v>
@@ -2442,12 +2461,12 @@
         <v>35</v>
       </c>
       <c r="N10" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>77</v>
@@ -2486,7 +2505,7 @@
         <v>35</v>
       </c>
       <c r="N11" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2539,7 +2558,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>79</v>
@@ -2572,12 +2591,12 @@
         <v>35</v>
       </c>
       <c r="L2" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>80</v>
@@ -2610,7 +2629,7 @@
         <v>35</v>
       </c>
       <c r="L3" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2660,7 +2679,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>83</v>
@@ -2690,12 +2709,12 @@
         <v>35</v>
       </c>
       <c r="K2" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>83</v>
@@ -2725,12 +2744,12 @@
         <v>35</v>
       </c>
       <c r="K3" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>83</v>
@@ -2760,12 +2779,12 @@
         <v>35</v>
       </c>
       <c r="K4" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>83</v>
@@ -2795,7 +2814,7 @@
         <v>35</v>
       </c>
       <c r="K5" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2804,6 +2823,148 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>120</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2">
+        <v>14313984</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>515</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>121</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6887708</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2">
+        <v>515</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="2">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -2819,7 +2980,7 @@
         <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -2854,28 +3015,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>990000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -2893,7 +3054,7 @@
         <v>35</v>
       </c>
       <c r="N2" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
